--- a/data/ps_libreacces/Correspondance.xlsx
+++ b/data/ps_libreacces/Correspondance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin montmartin\Desktop\Database Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git-CVC\Skema\git-skema\data\ps_libreacces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6656A202-11DA-4337-B455-7991C3E63F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C11E8E9-6E28-488D-900A-4CDB4A236959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65945BCB-AC70-461D-899B-9C90621B26E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65945BCB-AC70-461D-899B-9C90621B26E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -215,12 +215,6 @@
     <t>SM21</t>
   </si>
   <si>
-    <t>Hématologie, option Maladie du sang (SM)</t>
-  </si>
-  <si>
-    <t>Hématologie, option Onco-hématologie (SM)</t>
-  </si>
-  <si>
     <t>SM22</t>
   </si>
   <si>
@@ -293,18 +287,9 @@
     <t>SM34</t>
   </si>
   <si>
-    <t>Oncologie, option Onco-hématologie (SM)</t>
-  </si>
-  <si>
     <t>SM35</t>
   </si>
   <si>
-    <t>Oncologie, option médicale (SM)</t>
-  </si>
-  <si>
-    <t>Oncologie, option radiothérapie (SM)</t>
-  </si>
-  <si>
     <t>SM36</t>
   </si>
   <si>
@@ -326,9 +311,6 @@
     <t>Psychiatrie (SM)</t>
   </si>
   <si>
-    <t>Psychiatrie, option enfant et adolescent (SM)</t>
-  </si>
-  <si>
     <t>Radio-diagnostic (SM)</t>
   </si>
   <si>
@@ -374,12 +356,6 @@
     <t>Stomatologie (SM)</t>
   </si>
   <si>
-    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-obstétrique (SM)</t>
-  </si>
-  <si>
-    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-médicale (SM)</t>
-  </si>
-  <si>
     <t>Spécialiste en Médecine générale (SM)</t>
   </si>
   <si>
@@ -452,15 +428,9 @@
     <t>Médecine vasculaire (SM)</t>
   </si>
   <si>
-    <t>Endocrinologie, diabétologie, nutrition (SM)</t>
-  </si>
-  <si>
     <t>Biologie médicale option biologie générale (SM)</t>
   </si>
   <si>
-    <t>Biologie médicale option médecine moléculaire, génétique et pharmacologie (SM)</t>
-  </si>
-  <si>
     <t>Biologie médicale option hématologie et immunologie (SM)</t>
   </si>
   <si>
@@ -627,6 +597,36 @@
   </si>
   <si>
     <t>profession</t>
+  </si>
+  <si>
+    <t>Hématologie option Maladie du sang (SM)</t>
+  </si>
+  <si>
+    <t>Hématologie option Onco-hématologie (SM)</t>
+  </si>
+  <si>
+    <t>Oncologie option Onco-hématologie (SM)</t>
+  </si>
+  <si>
+    <t>Oncologie option médicale (SM)</t>
+  </si>
+  <si>
+    <t>Oncologie option radiothérapie (SM)</t>
+  </si>
+  <si>
+    <t>Psychiatrie option enfant et adolescent (SM)</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétrique et Gynéco-médicale option Gynéco-obstétrique (SM)</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétrique et Gynéco-médicale option Gynéco-médicale (SM)</t>
+  </si>
+  <si>
+    <t>Endocrinologie diabétologie nutrition (SM)</t>
+  </si>
+  <si>
+    <t>Biologie médicale option médecine moléculaire génétique et pharmacologie (SM)</t>
   </si>
 </sst>
 </file>
@@ -693,12 +693,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,9 +721,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -757,7 +761,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -863,7 +867,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1005,7 +1009,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,40 +1019,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141DA63-A62B-49D4-BD0A-3FD81AD21D0F}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93:D93"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -1058,14 +1062,14 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1075,14 +1079,14 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -1092,14 +1096,14 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -1109,14 +1113,14 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
@@ -1126,14 +1130,14 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -1143,14 +1147,14 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -1160,14 +1164,14 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
@@ -1177,14 +1181,14 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
@@ -1194,14 +1198,14 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -1211,12 +1215,12 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1225,14 +1229,14 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
@@ -1242,14 +1246,14 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
@@ -1259,14 +1263,14 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
@@ -1276,14 +1280,14 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
@@ -1293,14 +1297,14 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
@@ -1310,14 +1314,14 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
@@ -1327,14 +1331,14 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
@@ -1344,14 +1348,14 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1361,14 +1365,14 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1378,14 +1382,14 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1395,14 +1399,14 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1412,14 +1416,14 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1429,14 +1433,14 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1446,14 +1450,14 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1463,14 +1467,14 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1480,14 +1484,14 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1497,14 +1501,14 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>17</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1514,14 +1518,14 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1531,14 +1535,14 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1548,14 +1552,14 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>48</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1565,14 +1569,14 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1582,14 +1586,14 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>36</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1599,14 +1603,14 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>37</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1616,14 +1620,14 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1633,14 +1637,14 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1650,14 +1654,14 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -1667,14 +1671,14 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1684,14 +1688,14 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -1701,1131 +1705,1131 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>33</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>66</v>
+      <c r="C45" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>66</v>
+      <c r="C46" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>66</v>
+      <c r="C47" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>72</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
+      <c r="C48" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>70</v>
+      <c r="C49" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>73</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
+      <c r="C50" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>75</v>
+      <c r="C51" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>76</v>
+      <c r="C52" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>79</v>
+      <c r="C53" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>80</v>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>82</v>
+      <c r="C55" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>84</v>
+      <c r="C56" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>84</v>
+      <c r="C57" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>86</v>
+      <c r="C58" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
+      <c r="C59" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>87</v>
+      <c r="C60" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>87</v>
+      <c r="C61" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>90</v>
+      <c r="C62" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>59</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>91</v>
+      <c r="C63" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>92</v>
+      <c r="C64" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>93</v>
+      <c r="C65" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>94</v>
+      <c r="C66" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>94</v>
+      <c r="C67" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>95</v>
+      <c r="C68" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>95</v>
+      <c r="C69" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>96</v>
+      <c r="C70" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>97</v>
+      <c r="C71" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>106</v>
+      <c r="C72" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
-        <v>107</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>70</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>108</v>
+      <c r="C74" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>50</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>109</v>
+      <c r="C75" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>110</v>
+      <c r="C76" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>36</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>111</v>
+      <c r="C77" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>37</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>111</v>
+      <c r="C78" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>37</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>112</v>
+      <c r="C79" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E79">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>36</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>112</v>
+      <c r="C80" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>45</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>113</v>
+      <c r="C81" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>46</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>113</v>
+      <c r="C82" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>47</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>113</v>
+      <c r="C83" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E83">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>45</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>114</v>
+      <c r="C84" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E84">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>46</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>114</v>
+      <c r="C85" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>47</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>114</v>
+      <c r="C86" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E86">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>67</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>115</v>
+      <c r="C87" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E87">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>68</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>115</v>
+      <c r="C88" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>11</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>116</v>
+      <c r="C89" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>117</v>
+      <c r="C90" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>117</v>
+      <c r="C91" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>2</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>117</v>
+      <c r="C92" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E93">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E94">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E95">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E96">
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>23</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>137</v>
+      <c r="C97" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E97">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>44</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>138</v>
+      <c r="C98" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E98">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>44</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>139</v>
+      <c r="C99" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E99">
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>44</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>140</v>
+      <c r="C100" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E100">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>44</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>141</v>
+      <c r="C101" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E101">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>44</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>142</v>
+      <c r="C102" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E102">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>9</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>143</v>
+      <c r="C103" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E103">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>8</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>144</v>
+      <c r="C104" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E104">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>8</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>145</v>
+      <c r="C105" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E105">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>38</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>146</v>
+      <c r="C106" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E106">
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>72</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>147</v>
+      <c r="C107" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E107">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>62</v>
       </c>
@@ -2833,10 +2837,10 @@
         <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>63</v>
       </c>
@@ -2844,50 +2848,55 @@
         <v>21</v>
       </c>
       <c r="F109" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="8"/>
       <c r="E110" s="4">
         <v>26</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="8"/>
       <c r="E111" s="4">
         <v>28</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="8"/>
       <c r="E112" s="4">
         <v>31</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="8"/>
       <c r="E113" s="4">
         <v>32</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="8"/>
       <c r="E114" s="4">
         <v>35</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2895,34 +2904,37 @@
         <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="8"/>
       <c r="E116" s="4">
         <v>37</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="8"/>
       <c r="E117" s="4">
         <v>38</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="8"/>
       <c r="E118" s="4">
         <v>39</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>18</v>
       </c>
@@ -2930,10 +2942,10 @@
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>19</v>
       </c>
@@ -2941,10 +2953,10 @@
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>20</v>
       </c>
@@ -2952,10 +2964,10 @@
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>21</v>
       </c>
@@ -2963,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>71</v>
       </c>
@@ -2974,10 +2986,10 @@
         <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>39</v>
       </c>
@@ -2985,10 +2997,10 @@
         <v>60</v>
       </c>
       <c r="F124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>39</v>
       </c>
@@ -2996,10 +3008,10 @@
         <v>69</v>
       </c>
       <c r="F125" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>43</v>
       </c>
@@ -3007,10 +3019,10 @@
         <v>70</v>
       </c>
       <c r="F126" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>61</v>
       </c>
@@ -3018,58 +3030,64 @@
         <v>80</v>
       </c>
       <c r="F127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="8"/>
       <c r="E128" s="4">
         <v>81</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="8"/>
       <c r="E129" s="4">
         <v>82</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="8"/>
       <c r="E130" s="4">
         <v>83</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="8"/>
       <c r="E131" s="4">
         <v>84</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="8"/>
       <c r="E132" s="4">
         <v>85</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="8"/>
       <c r="E133" s="4">
         <v>86</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>57</v>
       </c>
@@ -3077,10 +3095,10 @@
         <v>91</v>
       </c>
       <c r="F134" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>58</v>
       </c>
@@ -3088,47 +3106,52 @@
         <v>92</v>
       </c>
       <c r="F135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="8"/>
       <c r="E136" s="4">
         <v>93</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="8"/>
       <c r="E137" s="4">
         <v>94</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="8"/>
       <c r="E138" s="4">
         <v>95</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="8"/>
       <c r="E139" s="4">
         <v>96</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="8"/>
       <c r="E140" s="4">
         <v>98</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
